--- a/biology/Zoologie/Coryphodon/Coryphodon.xlsx
+++ b/biology/Zoologie/Coryphodon/Coryphodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coryphodon est un genre éteint de mammifères ayant vécu durant la fin du Paléocène jusqu'au milieu de l'Éocène (Lutétien), il y a environ entre 58 et 46 Ma (millions d'années).
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec ancien signifiant : « dents pointues ».
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a vécu en Europe de l'Ouest, en Amérique du Nord et en Chine.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les hippopotames, Coryphodon vivait dans les marécages et se nourrissait de plantes aquatiques.
 De la taille d'un sanglier, Coryphodon mesurait 2,5 mètres de long, 1 mètre au garrot et pouvait peser jusqu'à 500 kilos. Il possédait deux défenses peu développées. Malgré sa taille assez moyenne, il était considéré comme un gros animal par rapport aux autres animaux vivant à la même époque.
@@ -605,7 +623,9 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa taille le protégeait de la plupart des carnivores, mais il était toutefois la proie de Titanoboa cerrejonensis, un serpent de plus de 12 mètres.
 </t>
